--- a/InputData/bldgs/PPEIdtIL/Potential Perc Eff Improvement due to Impr Labeling.xlsx
+++ b/InputData/bldgs/PPEIdtIL/Potential Perc Eff Improvement due to Impr Labeling.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\PPEIdtIL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="24915" windowHeight="11055"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="PPEIdtIL" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Source:</t>
   </si>
@@ -23,9 +28,6 @@
     <t>PPEIdtIL Potential Percentage Eff Improvement due to Improved Labeling</t>
   </si>
   <si>
-    <t>Building Component</t>
-  </si>
-  <si>
     <t>Commercial</t>
   </si>
   <si>
@@ -82,11 +84,35 @@
   <si>
     <t>Rural Residential</t>
   </si>
+  <si>
+    <t>This variable reflects improvement in efficiency components selected by consumers due</t>
+  </si>
+  <si>
+    <t>to improved labeling. The labeling influences consumers who are buying appliances of all</t>
+  </si>
+  <si>
+    <t>Quality levels, so it's represented as a simple percentage increase in the efficiency of</t>
+  </si>
+  <si>
+    <t>components sold (at all quality levels). If Quality Levels are defined based on</t>
+  </si>
+  <si>
+    <t>particular efficiency thresholds, this may mean the number of square feet served by</t>
+  </si>
+  <si>
+    <t>components of a given quality level will not be accurate. It's just a question of the meaning</t>
+  </si>
+  <si>
+    <t>of the labels given to each Quality Level.</t>
+  </si>
+  <si>
+    <t>Efficiency Improvement by Building Component (dimensionless)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,7 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -150,6 +176,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -161,6 +190,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -209,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,7 +276,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,9 +485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -469,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,47 +513,82 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -548,23 +617,23 @@
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -579,7 +648,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -594,7 +663,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -609,7 +678,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -624,7 +693,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0.1</v>
@@ -639,7 +708,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -911,13 +980,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6310DBB6-9678-4090-91EE-618C74C3DD3E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD580582-A17F-47C9-AA68-E7DE4EB28BF7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBB4691D-7733-4C1B-B5CC-32E6F51C18B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA513D8C-0D82-400D-9793-D281C7923E9C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BB37CE2-035E-46C2-8EDD-EB82EFB41F2B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1970C159-5CDA-4D0E-982A-7F9C4D228028}"/>
 </file>